--- a/biology/Zoologie/Azuré_du_mélilot/Azuré_du_mélilot.xlsx
+++ b/biology/Zoologie/Azuré_du_mélilot/Azuré_du_mélilot.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Azur%C3%A9_du_m%C3%A9lilot</t>
+          <t>Azuré_du_mélilot</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Polyommatus dorylas
 L’Azuré du mélilot ou  Argus turquoise (Polyommatus dorylas) est une espèce d'insectes lépidoptères (papillons) de la famille des Lycaenidae, de la sous-famille des Polyommatinae et du genre Polyommatus.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Azur%C3%A9_du_m%C3%A9lilot</t>
+          <t>Azuré_du_mélilot</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,16 +524,13 @@
           <t>Dénominations</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Polyommatus dorylas  Johann Nepomuk Cosmas Michael Denis et Ignaz Schiffermüller en 1775.
-Synonymes : Papilio dorylas Schiffermüller, 1775, Papilio hylas Esper, 1793, Papilio argester Bergsträsser, 1779, Plebicula dorylas D., 1775[1],[2].
-Noms vernaculaires
-L’Azuré du mélilot ou  Argus turquoise se nomme en anglais Turquoise Blue.
-Sous-espèces
-Polyommatus dorylas armenus (Staudinger, 1871) au Caucase (Arménie).
-Polyommatus dorylas castilla (Fruhstorfer, 1910).
-Polyommatus dorylas magna Bálint, 1985 dans le sud de l'Europe[1].</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Polyommatus dorylas  Johann Nepomuk Cosmas Michael Denis et Ignaz Schiffermüller en 1775.
+Synonymes : Papilio dorylas Schiffermüller, 1775, Papilio hylas Esper, 1793, Papilio argester Bergsträsser, 1779, Plebicula dorylas D., 1775,.
+</t>
         </is>
       </c>
     </row>
@@ -531,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Azur%C3%A9_du_m%C3%A9lilot</t>
+          <t>Azuré_du_mélilot</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -546,13 +555,18 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>Dénominations</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">C'est un petit papillon qui présente un dimorphisme sexuel, le dessus du mâle est bleu bordé d'une fine ligne grise, celui de la femelle est marron, orné d'une ligne submarginale de larges macules orange qui borde les postérieures et une partie des antérieures. Les deux ont leurs ailes bordées d'une frange blanche.
-Leur revers est ocre clair marqué d'une ligne blanche aux postérieures, orné de points noirs cerclés de blanc et d'une ligne submarginale de lunules blanches centrées d'un point noir et surmontées d'orange.
+          <t>Noms vernaculaires</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L’Azuré du mélilot ou  Argus turquoise se nomme en anglais Turquoise Blue.
 </t>
         </is>
       </c>
@@ -563,7 +577,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Azur%C3%A9_du_m%C3%A9lilot</t>
+          <t>Azuré_du_mélilot</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -578,18 +592,20 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Biologie</t>
+          <t>Dénominations</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Les chenilles sont soignées par des fourmis, Lasius alienus, Mirmica scabrinodes et Formica cirenea[3].
-Période de vol et hivernation
-Il hiverne à l'état de jeune chenille.
-Il vole en deux générations en mai juin puis juillet/août mais en altitude il est univoltin[3].
-Plantes hôtes
-Ses plantes hôtes sont Anthyllis vulneraria ainsi que des Melilotus, Trifolium, Thymus, Medicago[3],[1].
-</t>
+          <t>Sous-espèces</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Polyommatus dorylas armenus (Staudinger, 1871) au Caucase (Arménie).
+Polyommatus dorylas castilla (Fruhstorfer, 1910).
+Polyommatus dorylas magna Bálint, 1985 dans le sud de l'Europe.</t>
         </is>
       </c>
     </row>
@@ -599,7 +615,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Azur%C3%A9_du_m%C3%A9lilot</t>
+          <t>Azuré_du_mélilot</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -614,17 +630,231 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est un petit papillon qui présente un dimorphisme sexuel, le dessus du mâle est bleu bordé d'une fine ligne grise, celui de la femelle est marron, orné d'une ligne submarginale de larges macules orange qui borde les postérieures et une partie des antérieures. Les deux ont leurs ailes bordées d'une frange blanche.
+Leur revers est ocre clair marqué d'une ligne blanche aux postérieures, orné de points noirs cerclés de blanc et d'une ligne submarginale de lunules blanches centrées d'un point noir et surmontées d'orange.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Azuré_du_mélilot</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Azur%C3%A9_du_m%C3%A9lilot</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Biologie</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les chenilles sont soignées par des fourmis, Lasius alienus, Mirmica scabrinodes et Formica cirenea.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Azuré_du_mélilot</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Azur%C3%A9_du_m%C3%A9lilot</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Biologie</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Période de vol et hivernation</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il hiverne à l'état de jeune chenille.
+Il vole en deux générations en mai juin puis juillet/août mais en altitude il est univoltin.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Azuré_du_mélilot</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Azur%C3%A9_du_m%C3%A9lilot</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Biologie</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Plantes hôtes</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ses plantes hôtes sont Anthyllis vulneraria ainsi que des Melilotus, Trifolium, Thymus, Medicago,.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Azuré_du_mélilot</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Azur%C3%A9_du_m%C3%A9lilot</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
           <t>Écologie et distribution</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il est présent en Europe (nord de l'Espagne et de l'Italie, le sud et le sud-est de la France, sud-est de l'Allemagne et tout l'est de l'Europe), en Turquie et en Asie Mineure[1],[3].
-En France il est présent dans la moitié sud-est, dans la plupart des départements à l'est d'une ligne allant de la Dordogne et la Côte-d'Or[4]
-Biotope
-Il réside dans les lieux fleuris, les prairies alpines et subalpines.
-Protection
-Espèce menacée en France.
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il est présent en Europe (nord de l'Espagne et de l'Italie, le sud et le sud-est de la France, sud-est de l'Allemagne et tout l'est de l'Europe), en Turquie et en Asie Mineure,.
+En France il est présent dans la moitié sud-est, dans la plupart des départements à l'est d'une ligne allant de la Dordogne et la Côte-d'Or
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Azuré_du_mélilot</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Azur%C3%A9_du_m%C3%A9lilot</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Biotope</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il réside dans les lieux fleuris, les prairies alpines et subalpines.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Azuré_du_mélilot</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Azur%C3%A9_du_m%C3%A9lilot</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Protection</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Espèce menacée en France.
 </t>
         </is>
       </c>
